--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Retinopatía proliferativa (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Retinopatía proliferativa (INC).xlsx
@@ -463,7 +463,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-11.74871943660249</v>
+        <v>-11.74871943660246</v>
       </c>
       <c r="B3" t="n">
         <v>-15.25059592344386</v>
@@ -474,18 +474,18 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.796248358286569</v>
+        <v>2.79624835828659</v>
       </c>
       <c r="B4" t="n">
         <v>-1.919149609893054</v>
       </c>
       <c r="C4" t="n">
-        <v>8.376207405694913</v>
+        <v>8.376207405694906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-10.15914674299512</v>
+        <v>-10.15914674299509</v>
       </c>
       <c r="B5" t="n">
         <v>-13.72464261239905</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.23629942027722</v>
+        <v>19.23629942027723</v>
       </c>
       <c r="B6" t="n">
         <v>13.29966760544824</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101.5122763582167</v>
+        <v>101.5122763582166</v>
       </c>
       <c r="B8" t="n">
         <v>88.85776717471001</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.11532922460055</v>
+        <v>18.11532922460057</v>
       </c>
       <c r="B9" t="n">
-        <v>12.26898490674135</v>
+        <v>12.26898490674136</v>
       </c>
       <c r="C9" t="n">
         <v>24.22730579614216</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>34.5553802865912</v>
+        <v>34.55538028659122</v>
       </c>
       <c r="B12" t="n">
-        <v>27.48780212208265</v>
+        <v>27.48780212208266</v>
       </c>
       <c r="C12" t="n">
         <v>41.11734201749024</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>89.98336202610587</v>
+        <v>89.98336202610585</v>
       </c>
       <c r="B13" t="n">
         <v>78.44437446165657</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>75.29597558215909</v>
+        <v>75.29597558215907</v>
       </c>
       <c r="B14" t="n">
-        <v>64.88536357895234</v>
+        <v>64.88536357895232</v>
       </c>
       <c r="C14" t="n">
         <v>83.14671817363634</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-8.569574049387747</v>
+        <v>-8.569574049387711</v>
       </c>
       <c r="B15" t="n">
         <v>-12.19868930135424</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18.91011557140424</v>
+        <v>18.91011557140425</v>
       </c>
       <c r="B16" t="n">
         <v>13.03196156226376</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.122432207159555</v>
+        <v>3.122432207159569</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.651443566708572</v>
+        <v>-1.651443566708579</v>
       </c>
       <c r="C18" t="n">
         <v>8.618605982391522</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.8258721138846</v>
+        <v>20.82587211388461</v>
       </c>
       <c r="B20" t="n">
         <v>14.82562091649305</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.649209896628335</v>
+        <v>5.649209896628356</v>
       </c>
       <c r="B21" t="n">
         <v>0.8650509690120813</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-7.122420004838091</v>
+        <v>-7.122420004838062</v>
       </c>
       <c r="B23" t="n">
         <v>-10.90030055946287</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18.74702364696775</v>
+        <v>18.74702364696777</v>
       </c>
       <c r="B24" t="n">
         <v>12.89810854067152</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17.48363480223336</v>
+        <v>17.48363480223337</v>
       </c>
       <c r="B25" t="n">
         <v>11.63986127281119</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.301577594374301</v>
+        <v>6.301577594374322</v>
       </c>
       <c r="B26" t="n">
         <v>1.400463055381046</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>91.89911856858623</v>
+        <v>91.8991185685862</v>
       </c>
       <c r="B27" t="n">
         <v>80.23803381588587</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>46.06362134332323</v>
+        <v>46.06362134332324</v>
       </c>
       <c r="B28" t="n">
         <v>37.99490638269728</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-6.327633658034401</v>
+        <v>-6.327633658034379</v>
       </c>
       <c r="B29" t="n">
         <v>-10.13732390394046</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>34.24986971309699</v>
+        <v>34.249869713097</v>
       </c>
       <c r="B30" t="n">
         <v>27.12638453133697</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>74.99046500866487</v>
+        <v>74.99046500866486</v>
       </c>
       <c r="B31" t="n">
         <v>64.52394598820665</v>
@@ -799,7 +799,7 @@
         <v>64.75151055736009</v>
       </c>
       <c r="C33" t="n">
-        <v>83.02551888528804</v>
+        <v>83.02551888528802</v>
       </c>
     </row>
     <row r="34">
@@ -807,7 +807,7 @@
         <v>49.73204250384746</v>
       </c>
       <c r="B34" t="n">
-        <v>41.44837206956362</v>
+        <v>41.44837206956363</v>
       </c>
       <c r="C34" t="n">
         <v>56.65669830712648</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19.70490191820793</v>
+        <v>19.70490191820794</v>
       </c>
       <c r="B35" t="n">
-        <v>13.79493821778616</v>
+        <v>13.79493821778617</v>
       </c>
       <c r="C35" t="n">
         <v>25.8203843045506</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.770180092305004</v>
+        <v>6.770180092305026</v>
       </c>
       <c r="B37" t="n">
         <v>1.895733667718972</v>
@@ -859,24 +859,24 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>35.51325855783138</v>
+        <v>35.51325855783139</v>
       </c>
       <c r="B39" t="n">
         <v>28.3846317991973</v>
       </c>
       <c r="C39" t="n">
-        <v>42.03508056004277</v>
+        <v>42.03508056004276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.385821051893942</v>
+        <v>4.385821051893963</v>
       </c>
       <c r="B40" t="n">
         <v>-0.3931962988482454</v>
       </c>
       <c r="C40" t="n">
-        <v>9.969285914103359</v>
+        <v>9.969285914103352</v>
       </c>
     </row>
     <row r="41">
@@ -936,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>74.19567866186118</v>
+        <v>74.19567866186117</v>
       </c>
       <c r="B46" t="n">
         <v>63.76096933268424</v>
@@ -961,7 +961,7 @@
         <v>34.88156413546419</v>
       </c>
       <c r="B48" t="n">
-        <v>27.75550816526713</v>
+        <v>27.75550816526714</v>
       </c>
       <c r="C48" t="n">
         <v>41.35974059418685</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.101758931780779</v>
+        <v>3.101758931780807</v>
       </c>
       <c r="B49" t="n">
         <v>-1.557732019147373</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.443996243432025</v>
+        <v>6.443996243432046</v>
       </c>
       <c r="B50" t="n">
         <v>1.628027624534489</v>
@@ -991,18 +991,18 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-11.42253558772951</v>
+        <v>-11.42253558772948</v>
       </c>
       <c r="B51" t="n">
         <v>-14.98288988025938</v>
       </c>
       <c r="C51" t="n">
-        <v>-6.245410341388812</v>
+        <v>-6.245410341388805</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>72.74852461731153</v>
+        <v>72.74852461731152</v>
       </c>
       <c r="B52" t="n">
         <v>62.46258059079287</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-8.24339020051476</v>
+        <v>-8.243390200514732</v>
       </c>
       <c r="B54" t="n">
-        <v>-11.93098325816976</v>
+        <v>-11.93098325816975</v>
       </c>
       <c r="C54" t="n">
         <v>-3.05925332457192</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.812301821064828</v>
+        <v>5.81230182106485</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9989039906043189</v>
+        <v>0.998903990604326</v>
       </c>
       <c r="C55" t="n">
         <v>11.4411651341635</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6.933272016741498</v>
+        <v>6.933272016741519</v>
       </c>
       <c r="B58" t="n">
-        <v>2.029586689311209</v>
+        <v>2.029586689311216</v>
       </c>
       <c r="C58" t="n">
         <v>12.48010296506433</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>60.7716810626488</v>
+        <v>60.77168106264878</v>
       </c>
       <c r="B59" t="n">
         <v>51.46020571784032</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-7.611695778147563</v>
+        <v>-7.611695778147535</v>
       </c>
       <c r="B60" t="n">
         <v>-11.30185962423959</v>
@@ -1134,18 +1134,18 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-7.448603853711077</v>
+        <v>-7.448603853711042</v>
       </c>
       <c r="B64" t="n">
         <v>-11.16800660264735</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.2627140703677</v>
+        <v>-2.262714070367693</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>86.96730856332761</v>
+        <v>86.96730856332759</v>
       </c>
       <c r="B65" t="n">
         <v>75.52632086115919</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>48.61107230817079</v>
+        <v>48.6110723081708</v>
       </c>
       <c r="B66" t="n">
         <v>40.41768937085673</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.691331625388159</v>
+        <v>4.69133162538818</v>
       </c>
       <c r="B68" t="n">
         <v>-0.03177870810256422</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>103.2442677008818</v>
+        <v>103.2442677008817</v>
       </c>
       <c r="B69" t="n">
         <v>90.61128505490825</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.548912976330435</v>
+        <v>4.548912976330456</v>
       </c>
       <c r="B70" t="n">
         <v>-0.2593432772560078</v>
@@ -1214,7 +1214,7 @@
         <v>30.74454047700926</v>
       </c>
       <c r="B71" t="n">
-        <v>23.80677186606287</v>
+        <v>23.80677186606286</v>
       </c>
       <c r="C71" t="n">
         <v>37.25584503481743</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>32.17102124618014</v>
+        <v>32.17102124618015</v>
       </c>
       <c r="B72" t="n">
         <v>25.19887215551544</v>
